--- a/data/s_vals/2023/burke_brock.xlsx
+++ b/data/s_vals/2023/burke_brock.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.276820249404641</v>
+        <v>3.811642989160245</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C3" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.78562275156707</v>
+        <v>6.048734245549538</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C4" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.305734408293376</v>
+        <v>8.418600821238126</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04671107745245173</v>
+        <v>6.486019690155054e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02188399973699395</v>
+        <v>0.0001537489499301437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.403208137722497</v>
+        <v>3.582704742924467</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4798548413538308</v>
+        <v>0.06328177979961902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.364077690307456</v>
+        <v>3.98335274958572</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C7" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>6.264653728880862</v>
+        <v>12.0302756157461</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7180900571223114</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C8" t="n">
-        <v>3.291990378735282</v>
+        <v>9.226618575922256</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.303612816978131</v>
+        <v>16.57622297774539</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C9" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E9" t="n">
-        <v>1.942068315706629</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.907689923797342</v>
+        <v>254.9039648082657</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C10" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5.78562275156707</v>
+        <v>6.048734245549538</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7180900571223114</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.081343883389729</v>
+        <v>10.05705581352019</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3167448269367641</v>
+        <v>0.02258322285507441</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2163179218109788</v>
+        <v>0.05231270169004087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.347564152554487</v>
+        <v>1.287515482634162</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/burke_brock.xlsx
+++ b/data/s_vals/2023/burke_brock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>3.811642989160245</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>6.048734245549538</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>8.418600821238126</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>3.582704742924467</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>3.98335274958572</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>12.0302756157461</v>
       </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>16.57622297774539</v>
       </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>254.9039648082657</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>6.048734245549538</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>10.05705581352019</v>
       </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -738,6 +773,9 @@
       </c>
       <c r="G12" t="n">
         <v>1.287515482634162</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/burke_brock.xlsx
+++ b/data/s_vals/2023/burke_brock.xlsx
@@ -551,7 +551,7 @@
         <v>8.418600821238126</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">

--- a/data/s_vals/2023/burke_brock.xlsx
+++ b/data/s_vals/2023/burke_brock.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.811642989160245</v>
+        <v>3.754798637575387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C3" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.048734245549538</v>
+        <v>6.189590430959694</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,25 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C4" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.418600821238126</v>
+        <v>8.974608811992548</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.486019690155054e-05</v>
+        <v>1.292064567892659e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001537489499301437</v>
+        <v>6.240767534437808e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.582704742924467</v>
+        <v>4.032073513188513</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06328177979961902</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D6" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3.98335274958572</v>
+        <v>4.381533143997669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C7" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E7" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>12.0302756157461</v>
+        <v>15.88780690183548</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -645,22 +645,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1554434735375247</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C8" t="n">
-        <v>9.226618575922256</v>
+        <v>10.34677158129881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E8" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>16.57622297774539</v>
+        <v>21.41099993869619</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C9" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D9" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E9" t="n">
-        <v>246.9852506941017</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>254.9039648082657</v>
+        <v>1141.517288802799</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C10" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>6.048734245549538</v>
+        <v>6.189590430959694</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -729,22 +729,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1554434735375247</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D11" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E11" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.05705581352019</v>
+        <v>14.15606796568992</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02258322285507441</v>
+        <v>0.01293466051926884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05231270169004087</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.287515482634162</v>
+        <v>1.30063094841924</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
